--- a/medicine/Hématologie/Anagrélide/Anagrélide.xlsx
+++ b/medicine/Hématologie/Anagrélide/Anagrélide.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anagr%C3%A9lide</t>
+          <t>Anagrélide</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’ anagrélide est un médicament utilisé pour le traitement de la thrombocytémie essentielle [1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’ anagrélide est un médicament utilisé pour le traitement de la thrombocytémie essentielle .
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anagr%C3%A9lide</t>
+          <t>Anagrélide</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Mode d’action et précautions</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s’agit d’un inhibiteur de la phospholipase A2. Ce produit peut entraîner, dans de rares cas, une pneumonie interstitielle[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s’agit d’un inhibiteur de la phospholipase A2. Ce produit peut entraîner, dans de rares cas, une pneumonie interstitielle.
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Anagr%C3%A9lide</t>
+          <t>Anagrélide</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,9 +556,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’anagrélide est un traitement de première ligne de la thrombocytémie essentielle aux États-Unis, au Japon et dans d'autres pays. C'est un traitement de deuxième ligne en Europe, utilisé en cas d’intolérance ou d’absence de réponse à un traitement par hydroxycarbamide  [3]. L'arrêt brusque de l'anagrélide est à éviter en raison d'un risque de thromboses[4]. 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’anagrélide est un traitement de première ligne de la thrombocytémie essentielle aux États-Unis, au Japon et dans d'autres pays. C'est un traitement de deuxième ligne en Europe, utilisé en cas d’intolérance ou d’absence de réponse à un traitement par hydroxycarbamide  . L'arrêt brusque de l'anagrélide est à éviter en raison d'un risque de thromboses. 
 </t>
         </is>
       </c>
